--- a/WHO-DATA-SETS/ExcelDataSets/20200126-sitrep-6-2019--ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200126-sitrep-6-2019--ncov.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C68E52-47E6-4CDA-B013-0CC88070933E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4397C785-7192-4F11-817D-D08FFB3BAEFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="3" r:id="rId1"/>
@@ -317,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,90 +327,44 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -418,19 +372,10 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -771,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -784,172 +729,152 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="284.10000000000002" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="83.25" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="24" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1985</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="24.6" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
-        <v>1985</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="24" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="24" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="24" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10">
-        <v>3</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C13" s="9">
         <v>2014</v>
       </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="27" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A16:D16"/>
+  <mergeCells count="2">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WHO-DATA-SETS/ExcelDataSets/20200126-sitrep-6-2019--ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200126-sitrep-6-2019--ncov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4397C785-7192-4F11-817D-D08FFB3BAEFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C653917B-A625-4A43-9737-597BD5A58BFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="3" r:id="rId1"/>
@@ -354,29 +354,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +719,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -730,32 +730,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>1985</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="8">
@@ -764,8 +764,8 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8">
@@ -774,8 +774,8 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="8">
@@ -784,8 +784,8 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="8">
@@ -794,8 +794,8 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="8">
@@ -804,8 +804,8 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="8">
@@ -814,10 +814,10 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8">
@@ -826,8 +826,8 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="8">
@@ -836,10 +836,10 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="8">
@@ -848,10 +848,10 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="8">
@@ -860,10 +860,10 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="9">
